--- a/REGULAR/OJT/NEW DONE/EMELO MARY JANE.xlsx
+++ b/REGULAR/OJT/NEW DONE/EMELO MARY JANE.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A446A8-030E-47E2-A9C8-5BDE4A41671C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671FAE87-EA32-4297-B8EB-989029A1984A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="368">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1519,6 +1519,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1552,7 +1553,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1813,7 +1813,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1830,8 +1830,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K513" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K513" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K515" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K515" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
@@ -2160,12 +2160,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K513"/>
+  <dimension ref="A2:K515"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A197"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3696" topLeftCell="A472" activePane="bottomLeft"/>
       <selection activeCell="B8" sqref="B8"/>
-      <selection pane="bottomLeft" activeCell="E199" sqref="E199"/>
+      <selection pane="bottomLeft" activeCell="B484" sqref="B484"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2187,64 +2187,64 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="51"/>
+      <c r="C2" s="52"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57">
+      <c r="F3" s="58">
         <v>36163</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="52" t="s">
         <v>367</v>
       </c>
-      <c r="C4" s="51"/>
+      <c r="C4" s="52"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -2270,18 +2270,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50" t="s">
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -2328,7 +2328,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>88.491999999999962</v>
+        <v>89.741999999999962</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2338,7 +2338,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>26</v>
+        <v>26.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -13044,15 +13044,19 @@
       <c r="K479" s="20"/>
     </row>
     <row r="480" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A480" s="40"/>
+      <c r="A480" s="40">
+        <v>45017</v>
+      </c>
       <c r="B480" s="20"/>
-      <c r="C480" s="13"/>
+      <c r="C480" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D480" s="39"/>
       <c r="E480" s="9"/>
       <c r="F480" s="20"/>
-      <c r="G480" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G480" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H480" s="39"/>
       <c r="I480" s="9"/>
@@ -13060,8 +13064,12 @@
       <c r="K480" s="20"/>
     </row>
     <row r="481" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A481" s="40"/>
-      <c r="B481" s="20"/>
+      <c r="A481" s="40">
+        <v>45047</v>
+      </c>
+      <c r="B481" s="20" t="s">
+        <v>99</v>
+      </c>
       <c r="C481" s="13"/>
       <c r="D481" s="39"/>
       <c r="E481" s="9"/>
@@ -13070,14 +13078,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H481" s="39"/>
+      <c r="H481" s="39">
+        <v>1</v>
+      </c>
       <c r="I481" s="9"/>
       <c r="J481" s="11"/>
-      <c r="K481" s="20"/>
+      <c r="K481" s="49">
+        <v>45068</v>
+      </c>
     </row>
     <row r="482" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A482" s="40"/>
-      <c r="B482" s="20"/>
+      <c r="B482" s="20" t="s">
+        <v>165</v>
+      </c>
       <c r="C482" s="13"/>
       <c r="D482" s="39"/>
       <c r="E482" s="9"/>
@@ -13089,11 +13103,15 @@
       <c r="H482" s="39"/>
       <c r="I482" s="9"/>
       <c r="J482" s="11"/>
-      <c r="K482" s="20"/>
+      <c r="K482" s="49">
+        <v>45086</v>
+      </c>
     </row>
     <row r="483" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A483" s="40"/>
-      <c r="B483" s="20"/>
+      <c r="B483" s="20" t="s">
+        <v>165</v>
+      </c>
       <c r="C483" s="13"/>
       <c r="D483" s="39"/>
       <c r="E483" s="9"/>
@@ -13105,10 +13123,14 @@
       <c r="H483" s="39"/>
       <c r="I483" s="9"/>
       <c r="J483" s="11"/>
-      <c r="K483" s="20"/>
+      <c r="K483" s="49">
+        <v>45100</v>
+      </c>
     </row>
     <row r="484" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A484" s="40"/>
+      <c r="A484" s="40">
+        <v>45078</v>
+      </c>
       <c r="B484" s="20"/>
       <c r="C484" s="13"/>
       <c r="D484" s="39"/>
@@ -13124,7 +13146,9 @@
       <c r="K484" s="20"/>
     </row>
     <row r="485" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A485" s="40"/>
+      <c r="A485" s="40">
+        <v>45108</v>
+      </c>
       <c r="B485" s="20"/>
       <c r="C485" s="13"/>
       <c r="D485" s="39"/>
@@ -13140,7 +13164,9 @@
       <c r="K485" s="20"/>
     </row>
     <row r="486" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A486" s="40"/>
+      <c r="A486" s="40">
+        <v>45139</v>
+      </c>
       <c r="B486" s="20"/>
       <c r="C486" s="13"/>
       <c r="D486" s="39"/>
@@ -13156,7 +13182,9 @@
       <c r="K486" s="20"/>
     </row>
     <row r="487" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A487" s="40"/>
+      <c r="A487" s="40">
+        <v>45170</v>
+      </c>
       <c r="B487" s="20"/>
       <c r="C487" s="13"/>
       <c r="D487" s="39"/>
@@ -13172,7 +13200,9 @@
       <c r="K487" s="20"/>
     </row>
     <row r="488" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A488" s="40"/>
+      <c r="A488" s="40">
+        <v>45200</v>
+      </c>
       <c r="B488" s="20"/>
       <c r="C488" s="13"/>
       <c r="D488" s="39"/>
@@ -13188,7 +13218,9 @@
       <c r="K488" s="20"/>
     </row>
     <row r="489" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A489" s="40"/>
+      <c r="A489" s="40">
+        <v>45231</v>
+      </c>
       <c r="B489" s="20"/>
       <c r="C489" s="13"/>
       <c r="D489" s="39"/>
@@ -13204,7 +13236,9 @@
       <c r="K489" s="20"/>
     </row>
     <row r="490" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A490" s="40"/>
+      <c r="A490" s="40">
+        <v>45261</v>
+      </c>
       <c r="B490" s="20"/>
       <c r="C490" s="13"/>
       <c r="D490" s="39"/>
@@ -13220,7 +13254,9 @@
       <c r="K490" s="20"/>
     </row>
     <row r="491" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A491" s="40"/>
+      <c r="A491" s="40">
+        <v>45292</v>
+      </c>
       <c r="B491" s="20"/>
       <c r="C491" s="13"/>
       <c r="D491" s="39"/>
@@ -13236,7 +13272,9 @@
       <c r="K491" s="20"/>
     </row>
     <row r="492" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A492" s="40"/>
+      <c r="A492" s="40">
+        <v>45323</v>
+      </c>
       <c r="B492" s="20"/>
       <c r="C492" s="13"/>
       <c r="D492" s="39"/>
@@ -13252,7 +13290,9 @@
       <c r="K492" s="20"/>
     </row>
     <row r="493" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A493" s="40"/>
+      <c r="A493" s="40">
+        <v>45352</v>
+      </c>
       <c r="B493" s="20"/>
       <c r="C493" s="13"/>
       <c r="D493" s="39"/>
@@ -13268,7 +13308,9 @@
       <c r="K493" s="20"/>
     </row>
     <row r="494" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A494" s="40"/>
+      <c r="A494" s="40">
+        <v>45383</v>
+      </c>
       <c r="B494" s="20"/>
       <c r="C494" s="13"/>
       <c r="D494" s="39"/>
@@ -13284,7 +13326,9 @@
       <c r="K494" s="20"/>
     </row>
     <row r="495" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A495" s="40"/>
+      <c r="A495" s="40">
+        <v>45413</v>
+      </c>
       <c r="B495" s="20"/>
       <c r="C495" s="13"/>
       <c r="D495" s="39"/>
@@ -13300,7 +13344,9 @@
       <c r="K495" s="20"/>
     </row>
     <row r="496" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A496" s="40"/>
+      <c r="A496" s="40">
+        <v>45444</v>
+      </c>
       <c r="B496" s="20"/>
       <c r="C496" s="13"/>
       <c r="D496" s="39"/>
@@ -13316,7 +13362,9 @@
       <c r="K496" s="20"/>
     </row>
     <row r="497" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A497" s="40"/>
+      <c r="A497" s="40">
+        <v>45474</v>
+      </c>
       <c r="B497" s="20"/>
       <c r="C497" s="13"/>
       <c r="D497" s="39"/>
@@ -13332,7 +13380,9 @@
       <c r="K497" s="20"/>
     </row>
     <row r="498" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A498" s="40"/>
+      <c r="A498" s="40">
+        <v>45505</v>
+      </c>
       <c r="B498" s="20"/>
       <c r="C498" s="13"/>
       <c r="D498" s="39"/>
@@ -13348,7 +13398,9 @@
       <c r="K498" s="20"/>
     </row>
     <row r="499" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A499" s="40"/>
+      <c r="A499" s="40">
+        <v>45536</v>
+      </c>
       <c r="B499" s="20"/>
       <c r="C499" s="13"/>
       <c r="D499" s="39"/>
@@ -13572,20 +13624,52 @@
       <c r="K512" s="20"/>
     </row>
     <row r="513" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A513" s="41"/>
-      <c r="B513" s="15"/>
-      <c r="C513" s="42"/>
-      <c r="D513" s="43"/>
+      <c r="A513" s="40"/>
+      <c r="B513" s="20"/>
+      <c r="C513" s="13"/>
+      <c r="D513" s="39"/>
       <c r="E513" s="9"/>
-      <c r="F513" s="15"/>
-      <c r="G513" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H513" s="43"/>
+      <c r="F513" s="20"/>
+      <c r="G513" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H513" s="39"/>
       <c r="I513" s="9"/>
-      <c r="J513" s="12"/>
-      <c r="K513" s="15"/>
+      <c r="J513" s="11"/>
+      <c r="K513" s="20"/>
+    </row>
+    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A514" s="40"/>
+      <c r="B514" s="20"/>
+      <c r="C514" s="13"/>
+      <c r="D514" s="39"/>
+      <c r="E514" s="9"/>
+      <c r="F514" s="20"/>
+      <c r="G514" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H514" s="39"/>
+      <c r="I514" s="9"/>
+      <c r="J514" s="11"/>
+      <c r="K514" s="20"/>
+    </row>
+    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A515" s="41"/>
+      <c r="B515" s="15"/>
+      <c r="C515" s="42"/>
+      <c r="D515" s="43"/>
+      <c r="E515" s="9"/>
+      <c r="F515" s="15"/>
+      <c r="G515" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H515" s="43"/>
+      <c r="I515" s="9"/>
+      <c r="J515" s="12"/>
+      <c r="K515" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -13631,7 +13715,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -13650,17 +13734,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="J1" s="59" t="s">
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="J1" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
@@ -13724,7 +13808,7 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="50" t="s">
         <v>363</v>
       </c>
       <c r="C6" s="38" t="s">
@@ -13740,17 +13824,17 @@
         <v>30</v>
       </c>
       <c r="G6" s="46"/>
-      <c r="I6" s="60" t="s">
+      <c r="I6" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>114.49199999999996</v>
+        <v>115.99199999999996</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>

--- a/REGULAR/OJT/NEW DONE/EMELO MARY JANE.xlsx
+++ b/REGULAR/OJT/NEW DONE/EMELO MARY JANE.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671FAE87-EA32-4297-B8EB-989029A1984A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="369">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1138,12 +1137,15 @@
   </si>
   <si>
     <t>PERMANENT</t>
+  </si>
+  <si>
+    <t>6/14-15/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1830,26 +1832,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K515" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K515" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K516" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K516"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2156,34 +2158,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K515"/>
+  <dimension ref="A2:K516"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A472" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A472" activePane="bottomLeft"/>
       <selection activeCell="B8" sqref="B8"/>
-      <selection pane="bottomLeft" activeCell="B484" sqref="B484"/>
+      <selection pane="bottomLeft" activeCell="K486" sqref="K486"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2204,7 +2206,7 @@
       <c r="J2" s="53"/>
       <c r="K2" s="54"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2224,7 +2226,7 @@
       <c r="J3" s="55"/>
       <c r="K3" s="56"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2246,7 +2248,7 @@
       <c r="J4" s="53"/>
       <c r="K4" s="54"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2254,7 +2256,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2267,7 +2269,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="51" t="s">
@@ -2284,7 +2286,7 @@
       <c r="J7" s="51"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2319,7 +2321,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2328,7 +2330,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>89.741999999999962</v>
+        <v>90.991999999999962</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2338,12 +2340,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>26.25</v>
+        <v>25.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>100</v>
       </c>
@@ -2367,7 +2369,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>35065</v>
       </c>
@@ -2387,7 +2389,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <f>EDATE(A11,1)</f>
         <v>35096</v>
@@ -2408,7 +2410,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <f t="shared" ref="A13:A64" si="0">EDATE(A12,1)</f>
         <v>35125</v>
@@ -2429,7 +2431,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <f t="shared" si="0"/>
         <v>35156</v>
@@ -2450,7 +2452,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <f t="shared" si="0"/>
         <v>35186</v>
@@ -2477,7 +2479,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <f t="shared" si="0"/>
         <v>35217</v>
@@ -2498,7 +2500,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <f t="shared" si="0"/>
         <v>35247</v>
@@ -2519,7 +2521,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <f t="shared" si="0"/>
         <v>35278</v>
@@ -2540,7 +2542,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <f t="shared" si="0"/>
         <v>35309</v>
@@ -2561,7 +2563,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <f t="shared" si="0"/>
         <v>35339</v>
@@ -2586,7 +2588,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
       <c r="B21" s="20" t="s">
         <v>99</v>
@@ -2605,7 +2607,7 @@
         <v>35348</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <f>EDATE(A20,1)</f>
         <v>35370</v>
@@ -2632,7 +2634,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <f t="shared" si="0"/>
         <v>35400</v>
@@ -2657,7 +2659,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40"/>
       <c r="B24" s="20" t="s">
         <v>124</v>
@@ -2674,7 +2676,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="48" t="s">
         <v>121</v>
       </c>
@@ -2696,7 +2698,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <f>EDATE(A23,1)</f>
         <v>35431</v>
@@ -2717,7 +2719,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <f t="shared" si="0"/>
         <v>35462</v>
@@ -2738,7 +2740,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <f t="shared" si="0"/>
         <v>35490</v>
@@ -2759,7 +2761,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <f t="shared" si="0"/>
         <v>35521</v>
@@ -2780,7 +2782,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <f t="shared" si="0"/>
         <v>35551</v>
@@ -2801,7 +2803,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <f t="shared" si="0"/>
         <v>35582</v>
@@ -2822,7 +2824,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <f t="shared" si="0"/>
         <v>35612</v>
@@ -2843,7 +2845,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <f t="shared" si="0"/>
         <v>35643</v>
@@ -2864,7 +2866,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <f t="shared" si="0"/>
         <v>35674</v>
@@ -2885,7 +2887,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <f t="shared" si="0"/>
         <v>35704</v>
@@ -2912,7 +2914,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <f>EDATE(A35,1)</f>
         <v>35735</v>
@@ -2933,7 +2935,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <f t="shared" si="0"/>
         <v>35765</v>
@@ -2958,7 +2960,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="48" t="s">
         <v>120</v>
       </c>
@@ -2980,7 +2982,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <f>EDATE(A37,1)</f>
         <v>35796</v>
@@ -3001,7 +3003,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <f t="shared" si="0"/>
         <v>35827</v>
@@ -3022,7 +3024,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <f t="shared" si="0"/>
         <v>35855</v>
@@ -3043,7 +3045,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <f t="shared" si="0"/>
         <v>35886</v>
@@ -3064,7 +3066,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <f t="shared" si="0"/>
         <v>35916</v>
@@ -3091,7 +3093,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <f t="shared" si="0"/>
         <v>35947</v>
@@ -3118,7 +3120,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <f t="shared" si="0"/>
         <v>35977</v>
@@ -3139,7 +3141,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <f t="shared" si="0"/>
         <v>36008</v>
@@ -3160,7 +3162,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <f t="shared" si="0"/>
         <v>36039</v>
@@ -3187,7 +3189,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <f>EDATE(A47,1)</f>
         <v>36069</v>
@@ -3214,7 +3216,7 @@
         <v>35836</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40"/>
       <c r="B49" s="20" t="s">
         <v>122</v>
@@ -3233,7 +3235,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <f>EDATE(A48,1)</f>
         <v>36100</v>
@@ -3254,7 +3256,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <f t="shared" si="0"/>
         <v>36130</v>
@@ -3275,7 +3277,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="48" t="s">
         <v>119</v>
       </c>
@@ -3297,7 +3299,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <f>EDATE(A51,1)</f>
         <v>36161</v>
@@ -3322,7 +3324,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <f t="shared" si="0"/>
         <v>36192</v>
@@ -3347,7 +3349,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <f t="shared" si="0"/>
         <v>36220</v>
@@ -3372,7 +3374,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <f t="shared" si="0"/>
         <v>36251</v>
@@ -3393,7 +3395,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <f t="shared" si="0"/>
         <v>36281</v>
@@ -3414,7 +3416,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <f>EDATE(A57,1)</f>
         <v>36312</v>
@@ -3441,7 +3443,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40"/>
       <c r="B59" s="20" t="s">
         <v>147</v>
@@ -3461,7 +3463,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <f>EDATE(A58,1)</f>
         <v>36342</v>
@@ -3482,7 +3484,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <f t="shared" si="0"/>
         <v>36373</v>
@@ -3509,7 +3511,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20" t="s">
         <v>150</v>
@@ -3529,7 +3531,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <f>EDATE(A61,1)</f>
         <v>36404</v>
@@ -3554,7 +3556,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <f t="shared" si="0"/>
         <v>36434</v>
@@ -3581,7 +3583,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="20" t="s">
         <v>144</v>
@@ -3598,7 +3600,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <f>EDATE(A64,1)</f>
         <v>36465</v>
@@ -3625,7 +3627,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="20" t="s">
         <v>138</v>
@@ -3642,7 +3644,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <f>EDATE(A66,1)</f>
         <v>36495</v>
@@ -3667,7 +3669,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40"/>
       <c r="B69" s="20" t="s">
         <v>140</v>
@@ -3687,7 +3689,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="48" t="s">
         <v>118</v>
       </c>
@@ -3709,7 +3711,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>36526</v>
       </c>
@@ -3733,7 +3735,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <f>EDATE(A71,1)</f>
         <v>36557</v>
@@ -3760,7 +3762,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
         <v>153</v>
@@ -3780,7 +3782,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <f>EDATE(A72,1)</f>
         <v>36586</v>
@@ -3807,7 +3809,7 @@
         <v>36649</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="20" t="s">
         <v>154</v>
@@ -3827,7 +3829,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <f>EDATE(A74,1)</f>
         <v>36617</v>
@@ -3852,7 +3854,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20" t="s">
         <v>156</v>
@@ -3869,7 +3871,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <f>EDATE(A76,1)</f>
         <v>36647</v>
@@ -3894,7 +3896,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <f t="shared" ref="A79:A150" si="1">EDATE(A78,1)</f>
         <v>36678</v>
@@ -3921,7 +3923,7 @@
         <v>36683</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20" t="s">
         <v>156</v>
@@ -3941,7 +3943,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <f>EDATE(A79,1)</f>
         <v>36708</v>
@@ -3968,7 +3970,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <f t="shared" si="1"/>
         <v>36739</v>
@@ -3995,7 +3997,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <f t="shared" si="1"/>
         <v>36770</v>
@@ -4020,7 +4022,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <f t="shared" si="1"/>
         <v>36800</v>
@@ -4045,7 +4047,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20" t="s">
         <v>150</v>
@@ -4065,7 +4067,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <f>EDATE(A84,1)</f>
         <v>36831</v>
@@ -4086,7 +4088,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <f>EDATE(A86,1)</f>
         <v>36861</v>
@@ -4107,7 +4109,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="48" t="s">
         <v>117</v>
       </c>
@@ -4129,7 +4131,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <f>EDATE(A87,1)</f>
         <v>36892</v>
@@ -4154,7 +4156,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <f t="shared" si="1"/>
         <v>36923</v>
@@ -4181,7 +4183,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20" t="s">
         <v>99</v>
@@ -4200,7 +4202,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <f>EDATE(A90,1)</f>
         <v>36951</v>
@@ -4221,7 +4223,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <f t="shared" si="1"/>
         <v>36982</v>
@@ -4248,7 +4250,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <f>EDATE(A93,1)</f>
         <v>37012</v>
@@ -4273,7 +4275,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <f t="shared" si="1"/>
         <v>37043</v>
@@ -4298,7 +4300,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <f t="shared" si="1"/>
         <v>37073</v>
@@ -4319,7 +4321,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <f t="shared" si="1"/>
         <v>37104</v>
@@ -4346,7 +4348,7 @@
         <v>37203</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <f t="shared" si="1"/>
         <v>37135</v>
@@ -4373,7 +4375,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <f t="shared" si="1"/>
         <v>37165</v>
@@ -4400,7 +4402,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <f t="shared" si="1"/>
         <v>37196</v>
@@ -4421,7 +4423,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <f t="shared" si="1"/>
         <v>37226</v>
@@ -4442,7 +4444,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="48" t="s">
         <v>116</v>
       </c>
@@ -4464,7 +4466,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <f>EDATE(A101,1)</f>
         <v>37257</v>
@@ -4491,7 +4493,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <f t="shared" si="1"/>
         <v>37288</v>
@@ -4512,7 +4514,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <f t="shared" si="1"/>
         <v>37316</v>
@@ -4533,7 +4535,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <f t="shared" si="1"/>
         <v>37347</v>
@@ -4554,7 +4556,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <f t="shared" si="1"/>
         <v>37377</v>
@@ -4575,7 +4577,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <f t="shared" si="1"/>
         <v>37408</v>
@@ -4596,7 +4598,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <f t="shared" si="1"/>
         <v>37438</v>
@@ -4617,7 +4619,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <f t="shared" si="1"/>
         <v>37469</v>
@@ -4638,7 +4640,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <f t="shared" si="1"/>
         <v>37500</v>
@@ -4659,7 +4661,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <f t="shared" si="1"/>
         <v>37530</v>
@@ -4686,7 +4688,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <f t="shared" si="1"/>
         <v>37561</v>
@@ -4713,7 +4715,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <f t="shared" si="1"/>
         <v>37591</v>
@@ -4738,7 +4740,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="48" t="s">
         <v>115</v>
       </c>
@@ -4760,7 +4762,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <f>EDATE(A114,1)</f>
         <v>37622</v>
@@ -4781,7 +4783,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <f t="shared" si="1"/>
         <v>37653</v>
@@ -4802,7 +4804,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <f t="shared" si="1"/>
         <v>37681</v>
@@ -4823,7 +4825,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <f t="shared" si="1"/>
         <v>37712</v>
@@ -4850,7 +4852,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <f t="shared" si="1"/>
         <v>37742</v>
@@ -4871,7 +4873,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <f t="shared" si="1"/>
         <v>37773</v>
@@ -4892,7 +4894,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <f t="shared" si="1"/>
         <v>37803</v>
@@ -4913,7 +4915,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <f t="shared" si="1"/>
         <v>37834</v>
@@ -4934,7 +4936,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <f t="shared" si="1"/>
         <v>37865</v>
@@ -4955,7 +4957,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <f t="shared" si="1"/>
         <v>37895</v>
@@ -4982,7 +4984,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20" t="s">
         <v>174</v>
@@ -4999,7 +5001,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
         <f>EDATE(A125,1)</f>
         <v>37926</v>
@@ -5024,7 +5026,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
         <f t="shared" si="1"/>
         <v>37956</v>
@@ -5049,7 +5051,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="48" t="s">
         <v>114</v>
       </c>
@@ -5071,7 +5073,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
         <f>EDATE(A128,1)</f>
         <v>37987</v>
@@ -5098,7 +5100,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <f t="shared" si="1"/>
         <v>38018</v>
@@ -5119,7 +5121,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <f t="shared" si="1"/>
         <v>38047</v>
@@ -5146,7 +5148,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40"/>
       <c r="B133" s="20" t="s">
         <v>165</v>
@@ -5163,7 +5165,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <f>EDATE(A132,1)</f>
         <v>38078</v>
@@ -5184,7 +5186,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
         <f t="shared" si="1"/>
         <v>38108</v>
@@ -5205,7 +5207,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
         <f t="shared" si="1"/>
         <v>38139</v>
@@ -5226,7 +5228,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
         <f t="shared" si="1"/>
         <v>38169</v>
@@ -5253,7 +5255,7 @@
         <v>38237</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
         <f t="shared" si="1"/>
         <v>38200</v>
@@ -5280,7 +5282,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
         <f t="shared" si="1"/>
         <v>38231</v>
@@ -5307,7 +5309,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40"/>
       <c r="B140" s="20" t="s">
         <v>182</v>
@@ -5326,7 +5328,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
         <f>EDATE(A139,1)</f>
         <v>38261</v>
@@ -5347,7 +5349,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
         <f t="shared" si="1"/>
         <v>38292</v>
@@ -5372,7 +5374,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
         <f t="shared" si="1"/>
         <v>38322</v>
@@ -5393,7 +5395,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="48" t="s">
         <v>113</v>
       </c>
@@ -5415,7 +5417,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40">
         <f>EDATE(A143,1)</f>
         <v>38353</v>
@@ -5436,7 +5438,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
         <f t="shared" si="1"/>
         <v>38384</v>
@@ -5461,7 +5463,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
         <f t="shared" si="1"/>
         <v>38412</v>
@@ -5486,7 +5488,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
         <f t="shared" si="1"/>
         <v>38443</v>
@@ -5513,7 +5515,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40">
         <f t="shared" si="1"/>
         <v>38473</v>
@@ -5534,7 +5536,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
         <f t="shared" si="1"/>
         <v>38504</v>
@@ -5561,7 +5563,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
         <f t="shared" ref="A151:A249" si="2">EDATE(A150,1)</f>
         <v>38534</v>
@@ -5582,7 +5584,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40">
         <f t="shared" si="2"/>
         <v>38565</v>
@@ -5603,7 +5605,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40">
         <f t="shared" si="2"/>
         <v>38596</v>
@@ -5624,7 +5626,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
         <f t="shared" si="2"/>
         <v>38626</v>
@@ -5645,7 +5647,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40">
         <f t="shared" si="2"/>
         <v>38657</v>
@@ -5666,7 +5668,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40">
         <f t="shared" si="2"/>
         <v>38687</v>
@@ -5691,7 +5693,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="48" t="s">
         <v>112</v>
       </c>
@@ -5713,7 +5715,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40">
         <f>EDATE(A156,1)</f>
         <v>38718</v>
@@ -5738,7 +5740,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40">
         <f t="shared" si="2"/>
         <v>38749</v>
@@ -5765,7 +5767,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40"/>
       <c r="B160" s="20" t="s">
         <v>191</v>
@@ -5787,7 +5789,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40"/>
       <c r="B161" s="20" t="s">
         <v>122</v>
@@ -5809,7 +5811,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40"/>
       <c r="B162" s="20" t="s">
         <v>192</v>
@@ -5829,7 +5831,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40">
         <f>EDATE(A159,1)</f>
         <v>38777</v>
@@ -5856,7 +5858,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40"/>
       <c r="B164" s="20" t="s">
         <v>122</v>
@@ -5878,7 +5880,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40"/>
       <c r="B165" s="20" t="s">
         <v>193</v>
@@ -5898,7 +5900,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40">
         <f>EDATE(A163,1)</f>
         <v>38808</v>
@@ -5925,7 +5927,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40"/>
       <c r="B167" s="20" t="s">
         <v>99</v>
@@ -5947,7 +5949,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40">
         <f>EDATE(A166,1)</f>
         <v>38838</v>
@@ -5968,7 +5970,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40">
         <f t="shared" si="2"/>
         <v>38869</v>
@@ -5995,7 +5997,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40"/>
       <c r="B170" s="20" t="s">
         <v>203</v>
@@ -6012,7 +6014,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40">
         <f>EDATE(A169,1)</f>
         <v>38899</v>
@@ -6037,7 +6039,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40">
         <f t="shared" si="2"/>
         <v>38930</v>
@@ -6064,7 +6066,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40"/>
       <c r="B173" s="20" t="s">
         <v>205</v>
@@ -6081,7 +6083,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40">
         <f>EDATE(A172,1)</f>
         <v>38961</v>
@@ -6108,7 +6110,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40"/>
       <c r="B175" s="20" t="s">
         <v>96</v>
@@ -6130,7 +6132,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40">
         <f>EDATE(A174,1)</f>
         <v>38991</v>
@@ -6155,7 +6157,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40">
         <f t="shared" si="2"/>
         <v>39022</v>
@@ -6180,7 +6182,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40">
         <f t="shared" si="2"/>
         <v>39052</v>
@@ -6207,7 +6209,7 @@
         <v>38849</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40"/>
       <c r="B179" s="20" t="s">
         <v>208</v>
@@ -6224,7 +6226,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="48" t="s">
         <v>111</v>
       </c>
@@ -6246,7 +6248,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40">
         <f>EDATE(A178,1)</f>
         <v>39083</v>
@@ -6273,7 +6275,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40"/>
       <c r="B182" s="20" t="s">
         <v>212</v>
@@ -6293,7 +6295,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40">
         <f>EDATE(A181,1)</f>
         <v>39114</v>
@@ -6318,7 +6320,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40">
         <f t="shared" si="2"/>
         <v>39142</v>
@@ -6345,7 +6347,7 @@
         <v>39144</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40"/>
       <c r="B185" s="20" t="s">
         <v>140</v>
@@ -6367,7 +6369,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40"/>
       <c r="B186" s="20" t="s">
         <v>206</v>
@@ -6387,7 +6389,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40">
         <f>EDATE(A184,1)</f>
         <v>39173</v>
@@ -6412,7 +6414,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40">
         <f t="shared" si="2"/>
         <v>39203</v>
@@ -6433,7 +6435,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40">
         <f t="shared" si="2"/>
         <v>39234</v>
@@ -6454,7 +6456,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40">
         <f t="shared" si="2"/>
         <v>39264</v>
@@ -6481,7 +6483,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40">
         <f t="shared" si="2"/>
         <v>39295</v>
@@ -6508,7 +6510,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40"/>
       <c r="B192" s="20" t="s">
         <v>122</v>
@@ -6527,7 +6529,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40"/>
       <c r="B193" s="20" t="s">
         <v>218</v>
@@ -6546,7 +6548,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40"/>
       <c r="B194" s="20" t="s">
         <v>219</v>
@@ -6565,7 +6567,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40">
         <f>EDATE(A191,1)</f>
         <v>39326</v>
@@ -6586,7 +6588,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40">
         <f t="shared" si="2"/>
         <v>39356</v>
@@ -6611,7 +6613,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40">
         <f t="shared" si="2"/>
         <v>39387</v>
@@ -6636,7 +6638,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40">
         <f t="shared" si="2"/>
         <v>39417</v>
@@ -6663,7 +6665,7 @@
         <v>39337</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40"/>
       <c r="B199" s="20" t="s">
         <v>226</v>
@@ -6680,7 +6682,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="48" t="s">
         <v>110</v>
       </c>
@@ -6702,7 +6704,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40">
         <f>EDATE(A198,1)</f>
         <v>39448</v>
@@ -6729,7 +6731,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40"/>
       <c r="B202" s="20" t="s">
         <v>227</v>
@@ -6749,7 +6751,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40">
         <f>EDATE(A201,1)</f>
         <v>39479</v>
@@ -6776,7 +6778,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40"/>
       <c r="B204" s="20" t="s">
         <v>228</v>
@@ -6796,7 +6798,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40">
         <f>EDATE(A203,1)</f>
         <v>39508</v>
@@ -6821,7 +6823,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40">
         <f t="shared" si="2"/>
         <v>39539</v>
@@ -6846,7 +6848,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40">
         <f t="shared" si="2"/>
         <v>39569</v>
@@ -6871,7 +6873,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40">
         <f t="shared" si="2"/>
         <v>39600</v>
@@ -6896,7 +6898,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40"/>
       <c r="B209" s="20" t="s">
         <v>165</v>
@@ -6913,7 +6915,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40"/>
       <c r="B210" s="20" t="s">
         <v>233</v>
@@ -6930,7 +6932,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40">
         <f>EDATE(A208,1)</f>
         <v>39630</v>
@@ -6955,7 +6957,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40">
         <f t="shared" si="2"/>
         <v>39661</v>
@@ -6980,7 +6982,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40">
         <f t="shared" si="2"/>
         <v>39692</v>
@@ -7007,7 +7009,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40"/>
       <c r="B214" s="20" t="s">
         <v>235</v>
@@ -7024,7 +7026,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40">
         <f>EDATE(A213,1)</f>
         <v>39722</v>
@@ -7045,7 +7047,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40">
         <f t="shared" si="2"/>
         <v>39753</v>
@@ -7070,7 +7072,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40">
         <f t="shared" si="2"/>
         <v>39783</v>
@@ -7091,7 +7093,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="48" t="s">
         <v>109</v>
       </c>
@@ -7113,7 +7115,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40">
         <f>EDATE(A217,1)</f>
         <v>39814</v>
@@ -7140,7 +7142,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40"/>
       <c r="B220" s="20" t="s">
         <v>239</v>
@@ -7160,7 +7162,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40">
         <f>EDATE(A219,1)</f>
         <v>39845</v>
@@ -7185,7 +7187,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40">
         <f t="shared" si="2"/>
         <v>39873</v>
@@ -7212,7 +7214,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40"/>
       <c r="B223" s="20" t="s">
         <v>205</v>
@@ -7232,7 +7234,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40">
         <f>EDATE(A222,1)</f>
         <v>39904</v>
@@ -7257,7 +7259,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40">
         <f t="shared" si="2"/>
         <v>39934</v>
@@ -7282,7 +7284,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40">
         <f t="shared" si="2"/>
         <v>39965</v>
@@ -7307,7 +7309,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40"/>
       <c r="B227" s="20" t="s">
         <v>244</v>
@@ -7329,7 +7331,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40"/>
       <c r="B228" s="20" t="s">
         <v>213</v>
@@ -7349,7 +7351,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40">
         <f>EDATE(A226,1)</f>
         <v>39995</v>
@@ -7374,7 +7376,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40">
         <f t="shared" si="2"/>
         <v>40026</v>
@@ -7399,7 +7401,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40">
         <f t="shared" si="2"/>
         <v>40057</v>
@@ -7424,7 +7426,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40">
         <f t="shared" si="2"/>
         <v>40087</v>
@@ -7449,7 +7451,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40">
         <f t="shared" si="2"/>
         <v>40118</v>
@@ -7474,7 +7476,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40">
         <f t="shared" si="2"/>
         <v>40148</v>
@@ -7501,7 +7503,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40"/>
       <c r="B235" s="20" t="s">
         <v>250</v>
@@ -7521,7 +7523,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="48" t="s">
         <v>108</v>
       </c>
@@ -7543,7 +7545,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40">
         <f>EDATE(A234,1)</f>
         <v>40179</v>
@@ -7570,7 +7572,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40"/>
       <c r="B238" s="20" t="s">
         <v>254</v>
@@ -7590,7 +7592,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40">
         <f>EDATE(A237,1)</f>
         <v>40210</v>
@@ -7615,7 +7617,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40">
         <f t="shared" si="2"/>
         <v>40238</v>
@@ -7642,7 +7644,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40"/>
       <c r="B241" s="20" t="s">
         <v>256</v>
@@ -7662,7 +7664,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40">
         <f>EDATE(A240,1)</f>
         <v>40269</v>
@@ -7687,7 +7689,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40">
         <f t="shared" si="2"/>
         <v>40299</v>
@@ -7714,7 +7716,7 @@
         <v>40488</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40"/>
       <c r="B244" s="20" t="s">
         <v>244</v>
@@ -7736,7 +7738,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40"/>
       <c r="B245" s="20" t="s">
         <v>258</v>
@@ -7756,7 +7758,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40">
         <f>EDATE(A243,1)</f>
         <v>40330</v>
@@ -7781,7 +7783,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40">
         <f t="shared" si="2"/>
         <v>40360</v>
@@ -7806,7 +7808,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40">
         <f t="shared" si="2"/>
         <v>40391</v>
@@ -7831,7 +7833,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40">
         <f t="shared" si="2"/>
         <v>40422</v>
@@ -7858,7 +7860,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40"/>
       <c r="B250" s="20" t="s">
         <v>122</v>
@@ -7875,7 +7877,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40"/>
       <c r="B251" s="20" t="s">
         <v>266</v>
@@ -7892,7 +7894,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40">
         <f>EDATE(A249,1)</f>
         <v>40452</v>
@@ -7917,7 +7919,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40">
         <f t="shared" ref="A253:A353" si="3">EDATE(A252,1)</f>
         <v>40483</v>
@@ -7942,7 +7944,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40">
         <f t="shared" si="3"/>
         <v>40513</v>
@@ -7967,7 +7969,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="48" t="s">
         <v>107</v>
       </c>
@@ -7989,7 +7991,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40">
         <f>EDATE(A254,1)</f>
         <v>40544</v>
@@ -8014,7 +8016,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40"/>
       <c r="B257" s="20" t="s">
         <v>269</v>
@@ -8031,7 +8033,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40">
         <f>EDATE(A256,1)</f>
         <v>40575</v>
@@ -8056,7 +8058,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40">
         <f t="shared" si="3"/>
         <v>40603</v>
@@ -8081,7 +8083,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40">
         <f t="shared" si="3"/>
         <v>40634</v>
@@ -8108,7 +8110,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40"/>
       <c r="B261" s="20" t="s">
         <v>140</v>
@@ -8130,7 +8132,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40"/>
       <c r="B262" s="20" t="s">
         <v>272</v>
@@ -8150,7 +8152,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40">
         <f>EDATE(A260,1)</f>
         <v>40664</v>
@@ -8177,7 +8179,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40"/>
       <c r="B264" s="20" t="s">
         <v>165</v>
@@ -8197,7 +8199,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40"/>
       <c r="B265" s="20" t="s">
         <v>273</v>
@@ -8217,7 +8219,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40">
         <f>EDATE(A263,1)</f>
         <v>40695</v>
@@ -8238,7 +8240,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40">
         <f t="shared" si="3"/>
         <v>40725</v>
@@ -8259,7 +8261,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40">
         <f t="shared" si="3"/>
         <v>40756</v>
@@ -8286,7 +8288,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40">
         <f t="shared" si="3"/>
         <v>40787</v>
@@ -8307,7 +8309,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40">
         <f t="shared" si="3"/>
         <v>40817</v>
@@ -8328,7 +8330,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40">
         <f t="shared" si="3"/>
         <v>40848</v>
@@ -8353,7 +8355,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40">
         <f t="shared" si="3"/>
         <v>40878</v>
@@ -8380,7 +8382,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40"/>
       <c r="B273" s="20" t="s">
         <v>282</v>
@@ -8397,7 +8399,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="48" t="s">
         <v>106</v>
       </c>
@@ -8419,7 +8421,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40">
         <f>EDATE(A272,1)</f>
         <v>40909</v>
@@ -8446,7 +8448,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40"/>
       <c r="B276" s="20" t="s">
         <v>96</v>
@@ -8468,7 +8470,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40">
         <f>EDATE(A275,1)</f>
         <v>40940</v>
@@ -8489,7 +8491,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40">
         <f t="shared" si="3"/>
         <v>40969</v>
@@ -8516,7 +8518,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40"/>
       <c r="B279" s="20" t="s">
         <v>122</v>
@@ -8538,7 +8540,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40"/>
       <c r="B280" s="20" t="s">
         <v>127</v>
@@ -8558,7 +8560,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40">
         <f>EDATE(A278,1)</f>
         <v>41000</v>
@@ -8585,7 +8587,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40"/>
       <c r="B282" s="20" t="s">
         <v>191</v>
@@ -8607,7 +8609,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40">
         <f>EDATE(A281,1)</f>
         <v>41030</v>
@@ -8628,7 +8630,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40">
         <f t="shared" si="3"/>
         <v>41061</v>
@@ -8655,7 +8657,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40">
         <f t="shared" si="3"/>
         <v>41091</v>
@@ -8682,7 +8684,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40"/>
       <c r="B286" s="20" t="s">
         <v>122</v>
@@ -8704,7 +8706,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40">
         <f>EDATE(A285,1)</f>
         <v>41122</v>
@@ -8725,7 +8727,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40">
         <f t="shared" si="3"/>
         <v>41153</v>
@@ -8752,7 +8754,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40"/>
       <c r="B289" s="20" t="s">
         <v>133</v>
@@ -8774,7 +8776,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40">
         <f>EDATE(A288,1)</f>
         <v>41183</v>
@@ -8795,7 +8797,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40">
         <f t="shared" si="3"/>
         <v>41214</v>
@@ -8816,7 +8818,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40">
         <f t="shared" si="3"/>
         <v>41244</v>
@@ -8837,7 +8839,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="48" t="s">
         <v>105</v>
       </c>
@@ -8859,7 +8861,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40">
         <f>EDATE(A292,1)</f>
         <v>41275</v>
@@ -8886,7 +8888,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40">
         <f t="shared" si="3"/>
         <v>41306</v>
@@ -8913,7 +8915,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40"/>
       <c r="B296" s="20" t="s">
         <v>191</v>
@@ -8935,7 +8937,7 @@
         <v>41520</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40"/>
       <c r="B297" s="20" t="s">
         <v>191</v>
@@ -8957,7 +8959,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40">
         <f>EDATE(A295,1)</f>
         <v>41334</v>
@@ -8982,7 +8984,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40">
         <f t="shared" si="3"/>
         <v>41365</v>
@@ -9009,7 +9011,7 @@
         <v>41612</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40"/>
       <c r="B300" s="20" t="s">
         <v>185</v>
@@ -9029,7 +9031,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40">
         <f>EDATE(A299,1)</f>
         <v>41395</v>
@@ -9056,7 +9058,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40">
         <f t="shared" si="3"/>
         <v>41426</v>
@@ -9083,7 +9085,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40"/>
       <c r="B303" s="20" t="s">
         <v>299</v>
@@ -9103,7 +9105,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40">
         <f>EDATE(A302,1)</f>
         <v>41456</v>
@@ -9130,7 +9132,7 @@
         <v>41615</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40"/>
       <c r="B305" s="20" t="s">
         <v>300</v>
@@ -9150,7 +9152,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40">
         <f>EDATE(A304,1)</f>
         <v>41487</v>
@@ -9175,7 +9177,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40"/>
       <c r="B307" s="20" t="s">
         <v>145</v>
@@ -9195,7 +9197,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40"/>
       <c r="B308" s="20" t="s">
         <v>213</v>
@@ -9215,7 +9217,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40">
         <f>EDATE(A306,1)</f>
         <v>41518</v>
@@ -9242,7 +9244,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40">
         <f t="shared" si="3"/>
         <v>41548</v>
@@ -9267,7 +9269,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40">
         <f t="shared" si="3"/>
         <v>41579</v>
@@ -9288,7 +9290,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40">
         <f t="shared" si="3"/>
         <v>41609</v>
@@ -9309,7 +9311,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="48" t="s">
         <v>104</v>
       </c>
@@ -9331,7 +9333,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40">
         <f>EDATE(A312,1)</f>
         <v>41640</v>
@@ -9358,7 +9360,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40">
         <f t="shared" si="3"/>
         <v>41671</v>
@@ -9383,7 +9385,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40">
         <f t="shared" si="3"/>
         <v>41699</v>
@@ -9410,7 +9412,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40"/>
       <c r="B317" s="20" t="s">
         <v>122</v>
@@ -9432,7 +9434,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40">
         <f>EDATE(A316,1)</f>
         <v>41730</v>
@@ -9457,7 +9459,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40">
         <f t="shared" si="3"/>
         <v>41760</v>
@@ -9484,7 +9486,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40"/>
       <c r="B320" s="20" t="s">
         <v>165</v>
@@ -9504,7 +9506,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40"/>
       <c r="B321" s="20" t="s">
         <v>165</v>
@@ -9524,7 +9526,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40">
         <f>EDATE(A319,1)</f>
         <v>41791</v>
@@ -9545,7 +9547,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40">
         <f t="shared" si="3"/>
         <v>41821</v>
@@ -9572,7 +9574,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40"/>
       <c r="B324" s="20" t="s">
         <v>224</v>
@@ -9591,7 +9593,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40"/>
       <c r="B325" s="20" t="s">
         <v>174</v>
@@ -9608,7 +9610,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40">
         <f>EDATE(A323,1)</f>
         <v>41852</v>
@@ -9633,7 +9635,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40">
         <f t="shared" si="3"/>
         <v>41883</v>
@@ -9654,7 +9656,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40">
         <f t="shared" si="3"/>
         <v>41913</v>
@@ -9675,7 +9677,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40">
         <f t="shared" si="3"/>
         <v>41944</v>
@@ -9702,7 +9704,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40"/>
       <c r="B330" s="20" t="s">
         <v>122</v>
@@ -9724,7 +9726,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40"/>
       <c r="B331" s="20" t="s">
         <v>122</v>
@@ -9743,7 +9745,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40">
         <f>EDATE(A329,1)</f>
         <v>41974</v>
@@ -9768,7 +9770,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="48" t="s">
         <v>103</v>
       </c>
@@ -9790,7 +9792,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40">
         <f>EDATE(A332,1)</f>
         <v>42005</v>
@@ -9817,7 +9819,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40"/>
       <c r="B335" s="20" t="s">
         <v>322</v>
@@ -9837,7 +9839,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40">
         <f>EDATE(A334,1)</f>
         <v>42036</v>
@@ -9862,7 +9864,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40">
         <f t="shared" si="3"/>
         <v>42064</v>
@@ -9887,7 +9889,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40">
         <f t="shared" si="3"/>
         <v>42095</v>
@@ -9912,7 +9914,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40">
         <f t="shared" si="3"/>
         <v>42125</v>
@@ -9939,7 +9941,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40"/>
       <c r="B340" s="20" t="s">
         <v>165</v>
@@ -9959,7 +9961,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40"/>
       <c r="B341" s="20" t="s">
         <v>165</v>
@@ -9979,7 +9981,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40"/>
       <c r="B342" s="20" t="s">
         <v>247</v>
@@ -9999,7 +10001,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40">
         <f>EDATE(A339,1)</f>
         <v>42156</v>
@@ -10026,7 +10028,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40"/>
       <c r="B344" s="20" t="s">
         <v>326</v>
@@ -10046,7 +10048,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40">
         <f>EDATE(A343,1)</f>
         <v>42186</v>
@@ -10067,7 +10069,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40">
         <f t="shared" si="3"/>
         <v>42217</v>
@@ -10088,7 +10090,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40">
         <f t="shared" si="3"/>
         <v>42248</v>
@@ -10115,7 +10117,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40">
         <f t="shared" si="3"/>
         <v>42278</v>
@@ -10136,7 +10138,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40">
         <f t="shared" si="3"/>
         <v>42309</v>
@@ -10157,7 +10159,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40">
         <f t="shared" si="3"/>
         <v>42339</v>
@@ -10178,7 +10180,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="48" t="s">
         <v>102</v>
       </c>
@@ -10200,7 +10202,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40">
         <f>EDATE(A350,1)</f>
         <v>42370</v>
@@ -10221,7 +10223,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40">
         <f t="shared" si="3"/>
         <v>42401</v>
@@ -10248,7 +10250,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40">
         <f t="shared" ref="A354:A390" si="4">EDATE(A353,1)</f>
         <v>42430</v>
@@ -10273,7 +10275,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40">
         <f t="shared" si="4"/>
         <v>42461</v>
@@ -10300,7 +10302,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40">
         <f t="shared" si="4"/>
         <v>42491</v>
@@ -10327,7 +10329,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40"/>
       <c r="B357" s="20" t="s">
         <v>165</v>
@@ -10347,7 +10349,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40"/>
       <c r="B358" s="20" t="s">
         <v>165</v>
@@ -10367,7 +10369,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40">
         <f>EDATE(A356,1)</f>
         <v>42522</v>
@@ -10394,7 +10396,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40">
         <f t="shared" si="4"/>
         <v>42552</v>
@@ -10421,7 +10423,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40"/>
       <c r="B361" s="20" t="s">
         <v>129</v>
@@ -10443,7 +10445,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40">
         <f>EDATE(A360,1)</f>
         <v>42583</v>
@@ -10464,7 +10466,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40">
         <f t="shared" si="4"/>
         <v>42614</v>
@@ -10485,7 +10487,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40">
         <f t="shared" si="4"/>
         <v>42644</v>
@@ -10512,7 +10514,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40"/>
       <c r="B365" s="20" t="s">
         <v>129</v>
@@ -10534,7 +10536,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40">
         <f>EDATE(A364,1)</f>
         <v>42675</v>
@@ -10561,7 +10563,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40"/>
       <c r="B367" s="20" t="s">
         <v>152</v>
@@ -10583,7 +10585,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40">
         <f>EDATE(A366,1)</f>
         <v>42705</v>
@@ -10610,7 +10612,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="48" t="s">
         <v>101</v>
       </c>
@@ -10632,7 +10634,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40">
         <f>EDATE(A368,1)</f>
         <v>42736</v>
@@ -10659,7 +10661,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40"/>
       <c r="B371" s="20" t="s">
         <v>178</v>
@@ -10681,7 +10683,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40">
         <f>EDATE(A370,1)</f>
         <v>42767</v>
@@ -10708,7 +10710,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40"/>
       <c r="B373" s="20" t="s">
         <v>99</v>
@@ -10730,7 +10732,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40">
         <f>EDATE(A372,1)</f>
         <v>42795</v>
@@ -10757,7 +10759,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40"/>
       <c r="B375" s="20" t="s">
         <v>165</v>
@@ -10777,7 +10779,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40"/>
       <c r="B376" s="20" t="s">
         <v>122</v>
@@ -10799,7 +10801,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40">
         <f>EDATE(A374,1)</f>
         <v>42826</v>
@@ -10820,7 +10822,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40">
         <f t="shared" si="4"/>
         <v>42856</v>
@@ -10847,7 +10849,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40"/>
       <c r="B379" s="20" t="s">
         <v>99</v>
@@ -10869,7 +10871,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40"/>
       <c r="B380" s="20" t="s">
         <v>165</v>
@@ -10889,7 +10891,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40"/>
       <c r="B381" s="20" t="s">
         <v>165</v>
@@ -10909,7 +10911,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40">
         <f>EDATE(A378,1)</f>
         <v>42887</v>
@@ -10936,7 +10938,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40">
         <f t="shared" si="4"/>
         <v>42917</v>
@@ -10963,7 +10965,7 @@
         <v>42832</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40"/>
       <c r="B384" s="20" t="s">
         <v>241</v>
@@ -10985,7 +10987,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40"/>
       <c r="B385" s="20" t="s">
         <v>129</v>
@@ -11004,7 +11006,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40">
         <f>EDATE(A383,1)</f>
         <v>42948</v>
@@ -11025,7 +11027,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40">
         <f t="shared" si="4"/>
         <v>42979</v>
@@ -11046,7 +11048,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40">
         <f t="shared" si="4"/>
         <v>43009</v>
@@ -11067,7 +11069,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40">
         <f t="shared" si="4"/>
         <v>43040</v>
@@ -11088,7 +11090,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40">
         <f t="shared" si="4"/>
         <v>43070</v>
@@ -11109,7 +11111,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="48" t="s">
         <v>43</v>
       </c>
@@ -11127,7 +11129,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40">
         <v>43101</v>
       </c>
@@ -11151,7 +11153,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40"/>
       <c r="B393" s="20" t="s">
         <v>364</v>
@@ -11173,7 +11175,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40"/>
       <c r="B394" s="20" t="s">
         <v>44</v>
@@ -11197,7 +11199,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40">
         <v>43132</v>
       </c>
@@ -11223,7 +11225,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="41">
         <v>43160</v>
       </c>
@@ -11247,7 +11249,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40"/>
       <c r="B397" s="20" t="s">
         <v>50</v>
@@ -11267,7 +11269,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40"/>
       <c r="B398" s="20" t="s">
         <v>48</v>
@@ -11291,7 +11293,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40">
         <v>43191</v>
       </c>
@@ -11311,7 +11313,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40">
         <v>43221</v>
       </c>
@@ -11331,7 +11333,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40">
         <v>43252</v>
       </c>
@@ -11355,7 +11357,7 @@
         <v>43414</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40"/>
       <c r="B402" s="20" t="s">
         <v>50</v>
@@ -11375,7 +11377,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40"/>
       <c r="B403" s="20" t="s">
         <v>48</v>
@@ -11397,7 +11399,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40"/>
       <c r="B404" s="20" t="s">
         <v>365</v>
@@ -11419,7 +11421,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40"/>
       <c r="B405" s="20" t="s">
         <v>50</v>
@@ -11439,7 +11441,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40">
         <v>43282</v>
       </c>
@@ -11459,7 +11461,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40">
         <v>43313</v>
       </c>
@@ -11479,7 +11481,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40">
         <v>43344</v>
       </c>
@@ -11505,7 +11507,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40">
         <v>43374</v>
       </c>
@@ -11531,7 +11533,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40">
         <v>43405</v>
       </c>
@@ -11553,7 +11555,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40">
         <v>43435</v>
       </c>
@@ -11577,7 +11579,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="48" t="s">
         <v>63</v>
       </c>
@@ -11595,7 +11597,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40">
         <v>43466</v>
       </c>
@@ -11621,7 +11623,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40">
         <v>43497</v>
       </c>
@@ -11647,7 +11649,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40"/>
       <c r="B415" s="20" t="s">
         <v>64</v>
@@ -11669,7 +11671,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40"/>
       <c r="B416" s="20" t="s">
         <v>58</v>
@@ -11691,7 +11693,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40">
         <v>43525</v>
       </c>
@@ -11715,7 +11717,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40"/>
       <c r="B418" s="20" t="s">
         <v>58</v>
@@ -11739,7 +11741,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40">
         <v>43556</v>
       </c>
@@ -11759,7 +11761,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40">
         <v>43586</v>
       </c>
@@ -11783,7 +11785,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40">
         <v>43252</v>
       </c>
@@ -11807,7 +11809,7 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40"/>
       <c r="B422" s="20" t="s">
         <v>50</v>
@@ -11827,7 +11829,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40">
         <v>43647</v>
       </c>
@@ -11847,7 +11849,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40">
         <v>43678</v>
       </c>
@@ -11867,7 +11869,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40">
         <v>43709</v>
       </c>
@@ -11887,7 +11889,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40">
         <v>43739</v>
       </c>
@@ -11907,7 +11909,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40">
         <v>43770</v>
       </c>
@@ -11927,7 +11929,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40">
         <v>43800</v>
       </c>
@@ -11947,7 +11949,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="48" t="s">
         <v>73</v>
       </c>
@@ -11965,7 +11967,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40">
         <v>43831</v>
       </c>
@@ -11985,7 +11987,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40">
         <v>43862</v>
       </c>
@@ -12009,7 +12011,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40"/>
       <c r="B432" s="20" t="s">
         <v>365</v>
@@ -12031,7 +12033,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40"/>
       <c r="B433" s="20" t="s">
         <v>365</v>
@@ -12053,7 +12055,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40">
         <v>43891</v>
       </c>
@@ -12073,7 +12075,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40">
         <v>43922</v>
       </c>
@@ -12093,7 +12095,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40">
         <v>43952</v>
       </c>
@@ -12113,7 +12115,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40">
         <v>43983</v>
       </c>
@@ -12133,7 +12135,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40">
         <v>44013</v>
       </c>
@@ -12153,7 +12155,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40">
         <v>44044</v>
       </c>
@@ -12173,7 +12175,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40">
         <v>44075</v>
       </c>
@@ -12193,7 +12195,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40">
         <v>44105</v>
       </c>
@@ -12213,7 +12215,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40">
         <v>44136</v>
       </c>
@@ -12233,7 +12235,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40">
         <v>44166</v>
       </c>
@@ -12253,7 +12255,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="48" t="s">
         <v>78</v>
       </c>
@@ -12271,7 +12273,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40">
         <v>44197</v>
       </c>
@@ -12291,7 +12293,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40">
         <v>44228</v>
       </c>
@@ -12311,7 +12313,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40">
         <v>44256</v>
       </c>
@@ -12331,7 +12333,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="40">
         <v>44287</v>
       </c>
@@ -12351,7 +12353,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="40">
         <v>44317</v>
       </c>
@@ -12371,7 +12373,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="40">
         <v>44348</v>
       </c>
@@ -12397,7 +12399,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="40">
         <v>44378</v>
       </c>
@@ -12417,7 +12419,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="40">
         <v>44409</v>
       </c>
@@ -12437,7 +12439,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="40">
         <v>44440</v>
       </c>
@@ -12457,7 +12459,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="40">
         <v>44470</v>
       </c>
@@ -12477,7 +12479,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="40">
         <v>44501</v>
       </c>
@@ -12497,7 +12499,7 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="40">
         <v>44531</v>
       </c>
@@ -12523,7 +12525,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="48" t="s">
         <v>82</v>
       </c>
@@ -12541,7 +12543,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="40">
         <v>44562</v>
       </c>
@@ -12565,7 +12567,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40"/>
       <c r="B459" s="20" t="s">
         <v>366</v>
@@ -12587,7 +12589,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="40">
         <v>44593</v>
       </c>
@@ -12613,7 +12615,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="40"/>
       <c r="B461" s="20" t="s">
         <v>44</v>
@@ -12635,7 +12637,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="40">
         <v>44621</v>
       </c>
@@ -12661,7 +12663,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="40">
         <v>44652</v>
       </c>
@@ -12681,7 +12683,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="40">
         <v>44682</v>
       </c>
@@ -12701,7 +12703,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="40">
         <v>44713</v>
       </c>
@@ -12725,7 +12727,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="40"/>
       <c r="B466" s="20" t="s">
         <v>44</v>
@@ -12747,7 +12749,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="40">
         <v>44743</v>
       </c>
@@ -12773,7 +12775,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="40">
         <v>44774</v>
       </c>
@@ -12797,7 +12799,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="40">
         <v>44805</v>
       </c>
@@ -12823,7 +12825,7 @@
         <v>44821</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="40"/>
       <c r="B470" s="20" t="s">
         <v>94</v>
@@ -12843,7 +12845,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="40">
         <v>44835</v>
       </c>
@@ -12869,7 +12871,7 @@
         <v>44855</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="40"/>
       <c r="B472" s="20" t="s">
         <v>58</v>
@@ -12891,7 +12893,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="40">
         <v>44866</v>
       </c>
@@ -12911,7 +12913,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="40">
         <v>44896</v>
       </c>
@@ -12937,7 +12939,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="48" t="s">
         <v>91</v>
       </c>
@@ -12955,7 +12957,7 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="40">
         <v>44927</v>
       </c>
@@ -12975,7 +12977,7 @@
       <c r="J476" s="11"/>
       <c r="K476" s="20"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="40">
         <v>44958</v>
       </c>
@@ -13001,7 +13003,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="40"/>
       <c r="B478" s="20" t="s">
         <v>99</v>
@@ -13023,7 +13025,7 @@
         <v>44968</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="40">
         <v>44986</v>
       </c>
@@ -13043,7 +13045,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="40">
         <v>45017</v>
       </c>
@@ -13063,20 +13065,22 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="40">
         <v>45047</v>
       </c>
       <c r="B481" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="C481" s="13"/>
+      <c r="C481" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D481" s="39"/>
       <c r="E481" s="9"/>
       <c r="F481" s="20"/>
-      <c r="G481" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G481" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H481" s="39">
         <v>1</v>
@@ -13087,7 +13091,7 @@
         <v>45068</v>
       </c>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="40"/>
       <c r="B482" s="20" t="s">
         <v>165</v>
@@ -13107,7 +13111,7 @@
         <v>45086</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="40"/>
       <c r="B483" s="20" t="s">
         <v>165</v>
@@ -13127,11 +13131,13 @@
         <v>45100</v>
       </c>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="40">
         <v>45078</v>
       </c>
-      <c r="B484" s="20"/>
+      <c r="B484" s="20" t="s">
+        <v>165</v>
+      </c>
       <c r="C484" s="13"/>
       <c r="D484" s="39"/>
       <c r="E484" s="9"/>
@@ -13143,13 +13149,15 @@
       <c r="H484" s="39"/>
       <c r="I484" s="9"/>
       <c r="J484" s="11"/>
-      <c r="K484" s="20"/>
-    </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A485" s="40">
-        <v>45108</v>
-      </c>
-      <c r="B485" s="20"/>
+      <c r="K484" s="49">
+        <v>45104</v>
+      </c>
+    </row>
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A485" s="40"/>
+      <c r="B485" s="20" t="s">
+        <v>122</v>
+      </c>
       <c r="C485" s="13"/>
       <c r="D485" s="39"/>
       <c r="E485" s="9"/>
@@ -13158,14 +13166,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H485" s="39"/>
+      <c r="H485" s="39">
+        <v>2</v>
+      </c>
       <c r="I485" s="9"/>
       <c r="J485" s="11"/>
-      <c r="K485" s="20"/>
-    </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K485" s="49" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B486" s="20"/>
       <c r="C486" s="13"/>
@@ -13181,9 +13193,9 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B487" s="20"/>
       <c r="C487" s="13"/>
@@ -13199,9 +13211,9 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B488" s="20"/>
       <c r="C488" s="13"/>
@@ -13217,9 +13229,9 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B489" s="20"/>
       <c r="C489" s="13"/>
@@ -13235,9 +13247,9 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B490" s="20"/>
       <c r="C490" s="13"/>
@@ -13253,9 +13265,9 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B491" s="20"/>
       <c r="C491" s="13"/>
@@ -13271,9 +13283,9 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B492" s="20"/>
       <c r="C492" s="13"/>
@@ -13289,9 +13301,9 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B493" s="20"/>
       <c r="C493" s="13"/>
@@ -13307,9 +13319,9 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B494" s="20"/>
       <c r="C494" s="13"/>
@@ -13325,9 +13337,9 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B495" s="20"/>
       <c r="C495" s="13"/>
@@ -13343,9 +13355,9 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B496" s="20"/>
       <c r="C496" s="13"/>
@@ -13361,9 +13373,9 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B497" s="20"/>
       <c r="C497" s="13"/>
@@ -13379,9 +13391,9 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B498" s="20"/>
       <c r="C498" s="13"/>
@@ -13397,9 +13409,9 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B499" s="20"/>
       <c r="C499" s="13"/>
@@ -13415,8 +13427,10 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A500" s="40"/>
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A500" s="40">
+        <v>45536</v>
+      </c>
       <c r="B500" s="20"/>
       <c r="C500" s="13"/>
       <c r="D500" s="39"/>
@@ -13431,7 +13445,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40"/>
       <c r="B501" s="20"/>
       <c r="C501" s="13"/>
@@ -13447,7 +13461,7 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="40"/>
       <c r="B502" s="20"/>
       <c r="C502" s="13"/>
@@ -13463,7 +13477,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40"/>
       <c r="B503" s="20"/>
       <c r="C503" s="13"/>
@@ -13479,7 +13493,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40"/>
       <c r="B504" s="20"/>
       <c r="C504" s="13"/>
@@ -13495,7 +13509,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40"/>
       <c r="B505" s="20"/>
       <c r="C505" s="13"/>
@@ -13511,7 +13525,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="40"/>
       <c r="B506" s="20"/>
       <c r="C506" s="13"/>
@@ -13527,7 +13541,7 @@
       <c r="J506" s="11"/>
       <c r="K506" s="20"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40"/>
       <c r="B507" s="20"/>
       <c r="C507" s="13"/>
@@ -13543,7 +13557,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="40"/>
       <c r="B508" s="20"/>
       <c r="C508" s="13"/>
@@ -13559,7 +13573,7 @@
       <c r="J508" s="11"/>
       <c r="K508" s="20"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="40"/>
       <c r="B509" s="20"/>
       <c r="C509" s="13"/>
@@ -13575,7 +13589,7 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40"/>
       <c r="B510" s="20"/>
       <c r="C510" s="13"/>
@@ -13591,7 +13605,7 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="40"/>
       <c r="B511" s="20"/>
       <c r="C511" s="13"/>
@@ -13607,7 +13621,7 @@
       <c r="J511" s="11"/>
       <c r="K511" s="20"/>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="40"/>
       <c r="B512" s="20"/>
       <c r="C512" s="13"/>
@@ -13623,7 +13637,7 @@
       <c r="J512" s="11"/>
       <c r="K512" s="20"/>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40"/>
       <c r="B513" s="20"/>
       <c r="C513" s="13"/>
@@ -13639,7 +13653,7 @@
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="40"/>
       <c r="B514" s="20"/>
       <c r="C514" s="13"/>
@@ -13655,21 +13669,37 @@
       <c r="J514" s="11"/>
       <c r="K514" s="20"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A515" s="41"/>
-      <c r="B515" s="15"/>
-      <c r="C515" s="42"/>
-      <c r="D515" s="43"/>
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A515" s="40"/>
+      <c r="B515" s="20"/>
+      <c r="C515" s="13"/>
+      <c r="D515" s="39"/>
       <c r="E515" s="9"/>
-      <c r="F515" s="15"/>
-      <c r="G515" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H515" s="43"/>
+      <c r="F515" s="20"/>
+      <c r="G515" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H515" s="39"/>
       <c r="I515" s="9"/>
-      <c r="J515" s="12"/>
-      <c r="K515" s="15"/>
+      <c r="J515" s="11"/>
+      <c r="K515" s="20"/>
+    </row>
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A516" s="41"/>
+      <c r="B516" s="15"/>
+      <c r="C516" s="42"/>
+      <c r="D516" s="43"/>
+      <c r="E516" s="9"/>
+      <c r="F516" s="15"/>
+      <c r="G516" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H516" s="43"/>
+      <c r="I516" s="9"/>
+      <c r="J516" s="12"/>
+      <c r="K516" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -13686,10 +13716,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -13712,28 +13742,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="59" t="s">
         <v>33</v>
       </c>
@@ -13746,7 +13776,7 @@
       <c r="K1" s="60"/>
       <c r="L1" s="60"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -13775,7 +13805,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
@@ -13797,17 +13827,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="50" t="s">
         <v>363</v>
       </c>
@@ -13831,10 +13861,10 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>115.99199999999996</v>
+        <v>116.49199999999996</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
@@ -13862,7 +13892,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -13888,7 +13918,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -13914,7 +13944,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -13940,7 +13970,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -13966,7 +13996,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -13992,7 +14022,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -14018,7 +14048,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -14044,7 +14074,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -14064,7 +14094,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -14084,7 +14114,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -14104,7 +14134,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -14125,7 +14155,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -14146,7 +14176,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -14167,7 +14197,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -14188,7 +14218,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -14209,7 +14239,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -14230,7 +14260,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -14251,7 +14281,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -14272,7 +14302,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -14293,7 +14323,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -14314,7 +14344,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -14335,7 +14365,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -14356,7 +14386,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -14377,7 +14407,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -14398,7 +14428,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -14419,7 +14449,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -14440,7 +14470,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -14461,7 +14491,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -14482,7 +14512,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -14503,7 +14533,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -14524,7 +14554,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -14533,7 +14563,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -14542,7 +14572,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -14551,7 +14581,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -14560,7 +14590,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -14569,7 +14599,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -14578,7 +14608,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -14587,7 +14617,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -14596,7 +14626,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -14605,7 +14635,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -14614,7 +14644,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -14623,7 +14653,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -14632,7 +14662,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -14641,7 +14671,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -14650,7 +14680,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -14659,7 +14689,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -14668,7 +14698,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -14677,7 +14707,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -14686,7 +14716,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -14695,7 +14725,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -14704,7 +14734,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -14713,7 +14743,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -14722,7 +14752,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -14731,7 +14761,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -14740,7 +14770,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -14749,7 +14779,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -14758,7 +14788,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -14767,7 +14797,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -14776,7 +14806,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -14785,7 +14815,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
